--- a/PSP/김예지/신수동크러셔_psp_20150531_김예지.xlsx
+++ b/PSP/김예지/신수동크러셔_psp_20150531_김예지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeoj\Desktop\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66F47B-A59A-4C68-A43C-C9E5A3BE0D64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770ED7E-AE24-42E0-90FF-9A35EEE85C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9490" yWindow="860" windowWidth="12800" windowHeight="8440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김예지" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Table C16Time Recording Log</t>
   </si>
@@ -67,6 +67,154 @@
   </si>
   <si>
     <t>프로젝트회의</t>
+  </si>
+  <si>
+    <t>2019.10.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SRS, SAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 알고리즘 회의</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">use case diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수님</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 면담</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 알고리즘 회의</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>기대효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 리서치</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.09</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 연계방안 리서치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -74,9 +222,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,6 +259,39 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -150,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,13 +355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +364,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -408,21 +588,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="30.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -499,260 +682,328 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D7" s="9">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="A8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2100</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2230</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>90</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1615</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>75</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1510</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1630</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>80</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="A11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1615</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>75</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1630</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>90</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1800</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>180</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -760,5 +1011,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>